--- a/Datos PDET.xlsx
+++ b/Datos PDET.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edwin\OneDrive\Escritorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PUJ\VIII Semestre\Matlab - Herramienta Tecnológica\Proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D64DEB2C-5CBF-4B0D-A154-AA034FF08F07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{953A2768-A37B-4F1A-B796-5EB378CD3333}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -994,8 +994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H171"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="F138" sqref="F138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -4596,7 +4596,7 @@
         <v>1.28016</v>
       </c>
       <c r="H138" s="8">
-        <v>77.419169999999994</v>
+        <v>-77.419169999999994</v>
       </c>
     </row>
     <row r="139" spans="1:8">
